--- a/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
+++ b/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\2020\FASE I - Planeacion y Riesgos\4000 Respuesta a riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE I - Planeacion y Riesgos\4000 Respuesta a riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9FFCE-14CA-47B9-B043-099386CF8A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08993611-D2C6-4426-ABF0-0A028453416A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2033,11 +2033,11 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,6 +2731,10 @@
       <c r="B37" t="s">
         <v>431</v>
       </c>
+      <c r="C37" s="10">
+        <f>360/(+ER!C6/((BG!D8+BG!C8)/2))</f>
+        <v>146.2429334320309</v>
+      </c>
       <c r="D37" s="10">
         <f>360/(+ER!E6/((BG!E8+BG!D8)/2))</f>
         <v>60.789148153388986</v>
@@ -2758,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3AE88A-6268-49E4-A82A-528B34E089E3}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>

--- a/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
+++ b/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE I - Planeacion y Riesgos\4000 Respuesta a riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08993611-D2C6-4426-ABF0-0A028453416A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892873A-227A-4226-8256-F0AD64DDC35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
+++ b/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE I - Planeacion y Riesgos\4000 Respuesta a riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892873A-227A-4226-8256-F0AD64DDC35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F3114F-60DF-4D8C-9A93-2C1EC295AD01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BG" sheetId="3" r:id="rId1"/>
-    <sheet name="ER" sheetId="2" r:id="rId2"/>
-    <sheet name="BC20" sheetId="5" r:id="rId3"/>
-    <sheet name="BC19" sheetId="1" r:id="rId4"/>
-    <sheet name="BC18" sheetId="4" r:id="rId5"/>
+    <sheet name="Trabajo realizado" sheetId="6" r:id="rId1"/>
+    <sheet name="BG" sheetId="3" r:id="rId2"/>
+    <sheet name="ER" sheetId="2" r:id="rId3"/>
+    <sheet name="BC20" sheetId="5" r:id="rId4"/>
+    <sheet name="BC19" sheetId="1" r:id="rId5"/>
+    <sheet name="BC18" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="518">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -729,9 +730,6 @@
     <t>ACTIVOS</t>
   </si>
   <si>
-    <t>…Efectivos y equivalentes de efectivo</t>
-  </si>
-  <si>
     <t>Variacion</t>
   </si>
   <si>
@@ -1432,19 +1430,180 @@
   </si>
   <si>
     <t>Proyección</t>
+  </si>
+  <si>
+    <t>Las ventas de la compania se realizan unicamente a su parte relacionada: Telconet, en respuesta a sus necesidades y requerimientos de equipos. Hasta octubre 2020 las ventas de baterias se han reducido en un 39% pues, debido a la pandemia de covid-19 ha aumentado el trafico de internet pero no asi el numero de instalaciones</t>
+  </si>
+  <si>
+    <t>Los gastos de administracion y ventas incluyen principalmente honorarios pagados por servicios profesionales, los cuales ascendieron a US$112 mil en el 2019 y hasta oct-20 ascienden a US$70 mil (disminucion de US$32 mil); en adicion, en el 2019 se registraron US$30 mil por concepto de gastos de movilizacion</t>
+  </si>
+  <si>
+    <t>Telcodata registra la provision de impuesto a la renta al cierre del ejercicio, en diciembre de cada anio, motivo por el cual se registra esta variacion en los estados financieros provisionales a oct-20</t>
+  </si>
+  <si>
+    <t>REVISIÓN ANALÍTICA DE LOS ESTADOS FINANCIEROS</t>
+  </si>
+  <si>
+    <t>Cliente:</t>
+  </si>
+  <si>
+    <t>P/T:</t>
+  </si>
+  <si>
+    <t>Sección:</t>
+  </si>
+  <si>
+    <t>Fase 1 – Planeación y Riesgos</t>
+  </si>
+  <si>
+    <t>Preparado por:</t>
+  </si>
+  <si>
+    <t>Cesar León</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Revisado por:</t>
+  </si>
+  <si>
+    <t>Carlos Almeida</t>
+  </si>
+  <si>
+    <t>Con corte al:</t>
+  </si>
+  <si>
+    <t>Objetivos</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Analizar las relaciones entre la información financiera enfocándonos es variaciones materiales o relaciones incongruentes</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Determinar la causa de tales variaciones o relaciones incongruentes y obtener explicación satisfactoria de las mismas</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Obtener información para efectos de planeación de la auditoria</t>
+  </si>
+  <si>
+    <t>Fuente de información</t>
+  </si>
+  <si>
+    <t>La información de las pestañas adjuntas fue obtenida directamente de los estados financieros proporcionados por el cliente</t>
+  </si>
+  <si>
+    <t>Procedimientos de auditoria</t>
+  </si>
+  <si>
+    <t>También analizamos aquellas variaciones que en porcentaje exceden el 10%</t>
+  </si>
+  <si>
+    <t>Marcamos con amarillo las celdas correspondientes a las variaciones analizadas</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>Finalmente, también consideramos en nuestro análisis aquellas variaciones que representan relaciones incongruentes en la información financiera</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>Discutimos con la Gerencia General y con el Contador de la compania respecto de las desviaciones analizadas</t>
+  </si>
+  <si>
+    <t>f)</t>
+  </si>
+  <si>
+    <t>Revisamos documentación soporte de las transacciones que originan las variaciones analizadas en aquellos casos en que lo consideramos necesario</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>Luego del examen realizado de la forma descrita abajo expresamos las conclusiones alcanzadas</t>
+  </si>
+  <si>
+    <t>CONCLUSIONES:</t>
+  </si>
+  <si>
+    <t>Ê</t>
+  </si>
+  <si>
+    <t>Solicitar autorización para revisión de bodega y comprobar si los elementos han recibido daño o si se estan amortizando correctamente</t>
+  </si>
+  <si>
+    <t>Ë</t>
+  </si>
+  <si>
+    <t>Revisar si los seguros adquiridos para vehiculos o personales estan siendo correctamente amortizados</t>
+  </si>
+  <si>
+    <t>Ì</t>
+  </si>
+  <si>
+    <t>Revisión si los proyectores se están depreciando correctamente y en cuanto tiempo plazo</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>Pedir a los contadores los comprobantes de pago sobre las inversiones realizadas por los accionistas</t>
+  </si>
+  <si>
+    <t>Î</t>
+  </si>
+  <si>
+    <t>Actualmente estos valores de Retenciones, no encuentro soporte de estos valores, según lo declarado es de $ 80.524 y de retenciones efectuadas por $ 34.000.</t>
+  </si>
+  <si>
+    <t>SERVICIOS TELCODATA S.A</t>
+  </si>
+  <si>
+    <t>Al 31 de diciembre del 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunque se han vendido menos unidades se han mantenido los precios de venta del anio pasado, motivo por el cual no encontramos explicacion razonable para que los margenes brutos hayan disminuido del 55% en 2019 a 30% en 2020. Ver conclusiones en pestana de "Trabajo realizado" </t>
+  </si>
+  <si>
+    <t>Revisamos todas las variaciones por un monto mayor o menos a la materialidad de desempeno US$14,925</t>
+  </si>
+  <si>
+    <t>A pesar de que los saldos se han reducido en 601% los saldos de efectivo no son significativos en su totalidad</t>
+  </si>
+  <si>
+    <t>…Efectivo y equivalentes de efectivo</t>
+  </si>
+  <si>
+    <t>Los saldos de cartera por cobrar son cuentas con Telconet, compania relacionada, producto de las ventas de baterias en el curso de las operaciones. Los dias promedio de cuentas por cobrar se han incrementado de 61 a 146 dias pues lo pagos y flujos de fondos hacia Telcodata se manejan en funcion de sus necesidades operativas.</t>
+  </si>
+  <si>
+    <t>Este rubro incluye: a) Cuenta por cobrar registrada a Jan Topic por US$61 mil sin movimiento desde anios anteriores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.00&quot; &quot;%"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,8 +1687,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC9211E"/>
+      <name val="D050000L"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,8 +1733,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1612,6 +1815,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1619,7 +1930,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1689,6 +2000,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2029,43 +2393,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8BEF2D-39FE-432E-88FD-66CB1E3824AA}">
+  <dimension ref="A1:BL30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="52" customWidth="1"/>
+    <col min="2" max="64" width="12.140625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="53"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="55"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="62">
+        <v>44134</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4" s="55"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="55"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="O5" s="60"/>
+      <c r="P5" s="55"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="55"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="53"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="53"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="67" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="O8" s="69"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="O9" s="69"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="O10" s="69"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="O11" s="69"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="71"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="O13" s="69"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="71"/>
+      <c r="C14" s="68" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="O14" s="69"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="71"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="O15" s="69"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="O16" s="69"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="O18" s="69"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="72"/>
+      <c r="K19" s="68"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="70" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="70" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="O21" s="69"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="70" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="O22" s="69"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="70" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="71"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.5">
+      <c r="B26" s="73" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>501</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5">
+      <c r="B27" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.5">
+      <c r="B28" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="O28" s="69"/>
+    </row>
+    <row r="29" spans="2:15" ht="16.5">
+      <c r="B29" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>507</v>
+      </c>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="2:15" ht="16.5">
+      <c r="B30" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>509</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="96.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="15" t="s">
         <v>230</v>
       </c>
@@ -2079,18 +2998,18 @@
         <v>2018</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
@@ -2099,9 +3018,9 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="16" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
       <c r="C7" s="17">
         <f>+'BC20'!G9</f>
@@ -2122,11 +3041,13 @@
         <f>+F7/C7</f>
         <v>-6.0086277653705933</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60">
       <c r="B8" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="17">
         <f>+'BC20'!E14</f>
@@ -2139,19 +3060,21 @@
       <c r="E8" s="17">
         <v>750</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="51">
         <f t="shared" ref="F8:F14" si="0">+C8-D8</f>
         <v>-73042.51999999999</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="78">
         <f t="shared" ref="G8:G14" si="1">+F8/C8</f>
         <v>-0.62355189678215972</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="49" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="B9" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="17">
         <f>+'BC20'!F15+'BC20'!F26</f>
@@ -2165,19 +3088,21 @@
         <f>134277-750</f>
         <v>133527</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>-6152.039999999979</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="78">
         <f t="shared" si="1"/>
         <v>-4.4420642554279938E-2</v>
       </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="49" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C10" s="17">
         <f>+'BC20'!F19</f>
@@ -2190,19 +3115,19 @@
       <c r="E10" s="17">
         <v>153179</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>-22286.570000000007</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="78">
         <f t="shared" si="1"/>
         <v>-0.14724312047801064</v>
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="17">
         <f>+'BC20'!H30</f>
@@ -2215,19 +3140,19 @@
       <c r="E11" s="17">
         <v>199832</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>76658.86</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="78">
         <f t="shared" si="1"/>
         <v>0.4840403536287497</v>
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" s="14">
         <f>SUM(C7:C11)</f>
@@ -2251,9 +3176,9 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -2271,9 +3196,9 @@
       <c r="G13" s="30"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="14">
         <f>+C12+C13</f>
@@ -2297,7 +3222,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -2306,9 +3231,9 @@
       <c r="G15" s="17"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="17"/>
@@ -2317,9 +3242,9 @@
       <c r="G16" s="17"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -2328,9 +3253,9 @@
       <c r="G17" s="17"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
@@ -2343,9 +3268,9 @@
       <c r="G18" s="28"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="17">
         <f>-'BC20'!G49</f>
@@ -2358,69 +3283,69 @@
       <c r="E19" s="17">
         <v>168381</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="51">
         <f t="shared" ref="F19:F22" si="2">+C19-D19</f>
         <v>-22904.92</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="78">
         <f t="shared" ref="G19:G22" si="3">+F19/C19</f>
         <v>7634.9733333333324</v>
       </c>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="17">
         <f>-'BC20'!E59</f>
         <v>99328.9</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="79">
         <f>-'BC19'!G68+57028</f>
         <v>105404.14</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="51">
         <v>5597988</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="51">
         <f t="shared" si="2"/>
         <v>-6075.2400000000052</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="78">
         <f t="shared" si="3"/>
         <v>-6.1162863980170984E-2</v>
       </c>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="17">
         <f>-'BC20'!G41</f>
         <v>1436.66</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="79">
         <f>-'BC19'!G46</f>
         <v>42010.11</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="51">
         <v>1162</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="51">
         <f t="shared" si="2"/>
         <v>-40573.449999999997</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="78">
         <f t="shared" si="3"/>
         <v>-28.241511561538566</v>
       </c>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" s="14">
         <f>SUM(C18:C21)</f>
@@ -2444,7 +3369,7 @@
       </c>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -2453,9 +3378,9 @@
       <c r="G23" s="17"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -2464,9 +3389,9 @@
       <c r="G24" s="17"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" s="17">
         <f>-'BC20'!F64</f>
@@ -2489,9 +3414,9 @@
       </c>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="17">
         <f>-'BC20'!E70</f>
@@ -2514,9 +3439,9 @@
       </c>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="17">
         <f>-'BC20'!E71</f>
@@ -2539,9 +3464,9 @@
       </c>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="17">
         <f>-'BC20'!J78</f>
@@ -2564,9 +3489,9 @@
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="17">
         <f>-'BC20'!F75</f>
@@ -2590,9 +3515,9 @@
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="14">
         <f>SUM(C25:C29)</f>
@@ -2616,9 +3541,9 @@
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="18">
         <f>+C22+C30</f>
@@ -2642,7 +3567,7 @@
       </c>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="C32" s="45">
         <f>+C31-C14</f>
         <v>6.0000000055879354E-2</v>
@@ -2655,9 +3580,9 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="32">
         <f>+C12/C22</f>
@@ -2677,9 +3602,9 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" s="33">
         <f>+C22/C30</f>
@@ -2699,9 +3624,9 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" s="34">
         <f>+C18/C31</f>
@@ -2721,15 +3646,15 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C37" s="10">
         <f>360/(+ER!C6/((BG!D8+BG!C8)/2))</f>
@@ -2746,7 +3671,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2758,15 +3683,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -2775,35 +3700,35 @@
     <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" t="s">
         <v>464</v>
       </c>
-      <c r="D4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="47">
         <v>44105</v>
@@ -2818,18 +3743,18 @@
         <v>2018</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="B6" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="17">
         <f>-'BC20'!J84</f>
@@ -2853,11 +3778,13 @@
         <f>+G6/E6</f>
         <v>-0.39113662091410784</v>
       </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="49" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45">
       <c r="B7" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="17">
         <f>+'BC20'!J90</f>
@@ -2881,11 +3808,13 @@
         <f t="shared" ref="H7:H19" si="0">+G7/E7</f>
         <v>-1.3455189885368559</v>
       </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="49" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="20">
         <f>+C6-C7</f>
@@ -2913,29 +3842,32 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="16"/>
       <c r="C9" s="24">
         <f>+C8/C6</f>
         <v>0.3013500502300005</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="50">
         <f>+D8/D6</f>
         <v>0.3013500502300005</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="50">
         <f>+E8/E6</f>
         <v>0.55036436960520729</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="50">
         <f>+F8/F6</f>
         <v>0.24189407915900077</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="50">
+        <f>-E9+D9</f>
+        <v>-0.24901431937520679</v>
+      </c>
       <c r="H9" s="26"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -2948,26 +3880,26 @@
       <c r="H10" s="26"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60">
       <c r="B11" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="17">
         <f>+'BC20'!J96</f>
         <v>78113.88</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="51">
         <f>+C11/10*12</f>
         <v>93736.656000000017</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="51">
         <v>148619</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="51">
         <f>125973-19672</f>
         <v>106301</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="51">
         <f t="shared" si="1"/>
         <v>42318</v>
       </c>
@@ -2975,9 +3907,11 @@
         <f t="shared" si="0"/>
         <v>0.28474152026322341</v>
       </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="49" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="16"/>
       <c r="C12" s="24">
         <f>+C11/C6</f>
@@ -2999,9 +3933,9 @@
       <c r="H12" s="26"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17">
@@ -3025,9 +3959,9 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" s="17">
         <f>+'BC20'!J112</f>
@@ -3043,9 +3977,9 @@
       <c r="H14" s="26"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="20">
         <f>+C8-C11-C13-C14</f>
@@ -3073,7 +4007,7 @@
       </c>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="16"/>
       <c r="C16" s="24">
         <f>+C15/C6</f>
@@ -3095,9 +4029,9 @@
       <c r="H16" s="26"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" hidden="1">
       <c r="B17" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3114,9 +4048,9 @@
       <c r="H17" s="26"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="30">
       <c r="B18" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" s="17">
         <v>0</v>
@@ -3136,11 +4070,13 @@
         <f t="shared" si="0"/>
         <v>0.51551571273766128</v>
       </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="14">
         <f>+C15-C18</f>
@@ -3167,7 +4103,7 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="C20" s="25">
         <f t="shared" ref="C20:D20" si="4">+C19/C6</f>
         <v>9.7330857082430028E-2</v>
@@ -3186,7 +4122,7 @@
       </c>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
     </row>
@@ -3195,15 +4131,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3AE88A-6268-49E4-A82A-528B34E089E3}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
@@ -3212,23 +4148,23 @@
     <col min="5" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="3" customFormat="1"/>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="23.25">
       <c r="B2" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="B3" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1">
+      <c r="B4" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3245,7 +4181,7 @@
         <v>565890.26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3262,7 +4198,7 @@
         <v>407517.39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3279,7 +4215,7 @@
         <v>407517.39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -3296,7 +4232,7 @@
         <v>523.89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -3313,7 +4249,7 @@
         <v>523.89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3335,7 +4271,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -3352,7 +4288,7 @@
         <v>194379.61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="3" customFormat="1">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -3369,7 +4305,7 @@
         <v>117139.44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="3" customFormat="1">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3391,7 +4327,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="3" customFormat="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3408,7 +4344,7 @@
         <v>77240.17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3430,7 +4366,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="3" customFormat="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3452,7 +4388,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3469,7 +4405,7 @@
         <v>151358.99</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3486,7 +4422,7 @@
         <v>151358.99</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="3" customFormat="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3508,7 +4444,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3530,7 +4466,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="3" customFormat="1">
       <c r="A22">
         <v>23</v>
       </c>
@@ -3552,7 +4488,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="3" customFormat="1">
       <c r="A23">
         <v>25</v>
       </c>
@@ -3574,15 +4510,15 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="3" customFormat="1">
       <c r="A24">
         <v>27</v>
       </c>
       <c r="B24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -3596,7 +4532,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="3" customFormat="1">
       <c r="A25" s="3">
         <v>29</v>
       </c>
@@ -3613,7 +4549,7 @@
         <v>61254.9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1">
       <c r="A26" s="3">
         <v>30</v>
       </c>
@@ -3630,7 +4566,7 @@
         <v>61254.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1">
       <c r="A27">
         <v>31</v>
       </c>
@@ -3652,7 +4588,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="3" customFormat="1">
       <c r="A28">
         <v>33</v>
       </c>
@@ -3674,7 +4610,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>35</v>
       </c>
@@ -3691,7 +4627,7 @@
         <v>158372.87</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>36</v>
       </c>
@@ -3708,7 +4644,7 @@
         <v>158372.87</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>37</v>
       </c>
@@ -3725,7 +4661,7 @@
         <v>156890.82999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="3" customFormat="1">
       <c r="A32" s="3">
         <v>38</v>
       </c>
@@ -3742,7 +4678,7 @@
         <v>156890.82999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="3" customFormat="1">
       <c r="A33">
         <v>39</v>
       </c>
@@ -3764,7 +4700,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>41</v>
       </c>
@@ -3781,7 +4717,7 @@
         <v>1482.04</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="3" customFormat="1">
       <c r="A35" s="3">
         <v>42</v>
       </c>
@@ -3798,7 +4734,7 @@
         <v>1482.04</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="3" customFormat="1">
       <c r="A36">
         <v>43</v>
       </c>
@@ -3820,7 +4756,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="3" customFormat="1">
       <c r="A37">
         <v>45</v>
       </c>
@@ -3842,7 +4778,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>47</v>
       </c>
@@ -3859,7 +4795,7 @@
         <v>-100762.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="3" customFormat="1">
       <c r="A39" s="3">
         <v>48</v>
       </c>
@@ -3876,7 +4812,7 @@
         <v>-100762.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="3" customFormat="1">
       <c r="A40" s="3">
         <v>49</v>
       </c>
@@ -3893,7 +4829,7 @@
         <v>-100762.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>50</v>
       </c>
@@ -3910,7 +4846,7 @@
         <v>-1436.66</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>51</v>
       </c>
@@ -3927,7 +4863,7 @@
         <v>-815.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="3" customFormat="1">
       <c r="A43">
         <v>52</v>
       </c>
@@ -3949,7 +4885,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="3" customFormat="1">
       <c r="A44">
         <v>54</v>
       </c>
@@ -3971,7 +4907,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>56</v>
       </c>
@@ -3988,7 +4924,7 @@
         <v>-620.86</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="3" customFormat="1">
       <c r="A46">
         <v>57</v>
       </c>
@@ -4010,7 +4946,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="3" customFormat="1">
       <c r="A47">
         <v>59</v>
       </c>
@@ -4032,7 +4968,7 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="3" customFormat="1">
       <c r="A48">
         <v>61</v>
       </c>
@@ -4054,7 +4990,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="3" customFormat="1">
       <c r="A49" s="3">
         <v>63</v>
       </c>
@@ -4071,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="3" customFormat="1">
       <c r="A50" s="3">
         <v>64</v>
       </c>
@@ -4088,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="3" customFormat="1">
       <c r="A51">
         <v>65</v>
       </c>
@@ -4110,7 +5046,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>67</v>
       </c>
@@ -4127,7 +5063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="3" customFormat="1">
       <c r="A53">
         <v>68</v>
       </c>
@@ -4149,7 +5085,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>70</v>
       </c>
@@ -4166,7 +5102,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>71</v>
       </c>
@@ -4183,7 +5119,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="3" customFormat="1">
       <c r="A56">
         <v>72</v>
       </c>
@@ -4205,7 +5141,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="3" customFormat="1">
       <c r="A57" s="3">
         <v>74</v>
       </c>
@@ -4222,7 +5158,7 @@
         <v>-99328.9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="3" customFormat="1">
       <c r="A58" s="3">
         <v>75</v>
       </c>
@@ -4239,7 +5175,7 @@
         <v>-99328.9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="3" customFormat="1">
       <c r="A59">
         <v>76</v>
       </c>
@@ -4261,7 +5197,7 @@
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -4278,7 +5214,7 @@
         <v>-428311.39</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -4295,7 +5231,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>80</v>
       </c>
@@ -4312,7 +5248,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="3" customFormat="1">
       <c r="A63" s="3">
         <v>81</v>
       </c>
@@ -4329,7 +5265,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="3" customFormat="1">
       <c r="A64" s="3">
         <v>82</v>
       </c>
@@ -4346,7 +5282,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="3" customFormat="1">
       <c r="A65">
         <v>83</v>
       </c>
@@ -4368,7 +5304,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="3" customFormat="1">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -4385,7 +5321,7 @@
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="3" customFormat="1">
       <c r="A67" s="3">
         <v>86</v>
       </c>
@@ -4402,7 +5338,7 @@
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="3" customFormat="1">
       <c r="A68" s="3">
         <v>87</v>
       </c>
@@ -4419,7 +5355,7 @@
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="3" customFormat="1">
       <c r="A69" s="3">
         <v>88</v>
       </c>
@@ -4436,7 +5372,7 @@
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="3" customFormat="1">
       <c r="A70">
         <v>89</v>
       </c>
@@ -4458,7 +5394,7 @@
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="3" customFormat="1">
       <c r="A71">
         <v>91</v>
       </c>
@@ -4480,7 +5416,7 @@
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="3" customFormat="1">
       <c r="A72" s="3">
         <v>93</v>
       </c>
@@ -4497,7 +5433,7 @@
         <v>-61726.93</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="3" customFormat="1">
       <c r="A73" s="3">
         <v>94</v>
       </c>
@@ -4514,7 +5450,7 @@
         <v>-61726.93</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="3" customFormat="1">
       <c r="A74" s="3">
         <v>95</v>
       </c>
@@ -4531,7 +5467,7 @@
         <v>-61726.93</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="3" customFormat="1">
       <c r="A75" s="3">
         <v>96</v>
       </c>
@@ -4548,7 +5484,7 @@
         <v>-61726.93</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="3" customFormat="1">
       <c r="A76">
         <v>97</v>
       </c>
@@ -4570,10 +5506,10 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="3" customFormat="1"/>
+    <row r="78" spans="1:10" s="3" customFormat="1">
       <c r="B78" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -4587,23 +5523,23 @@
         <v>-36816.369999999981</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:10" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" s="3" customFormat="1"/>
+    <row r="80" spans="1:10" s="3" customFormat="1" ht="23.25">
       <c r="B80" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="3" customFormat="1">
       <c r="B81" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="3" customFormat="1">
       <c r="B82" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="3">
         <v>99</v>
       </c>
@@ -4625,7 +5561,7 @@
         <v>-378260</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="3">
         <v>100</v>
       </c>
@@ -4647,7 +5583,7 @@
       </c>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="3">
         <v>101</v>
       </c>
@@ -4669,7 +5605,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="3">
         <v>102</v>
       </c>
@@ -4691,7 +5627,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="3">
         <v>103</v>
       </c>
@@ -4713,7 +5649,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>104</v>
       </c>
@@ -4730,7 +5666,7 @@
         <v>-378260</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="3">
         <v>106</v>
       </c>
@@ -4752,7 +5688,7 @@
         <v>264271.33</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="3">
         <v>107</v>
       </c>
@@ -4774,7 +5710,7 @@
       </c>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="3">
         <v>108</v>
       </c>
@@ -4796,7 +5732,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="3">
         <v>109</v>
       </c>
@@ -4818,7 +5754,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="3">
         <v>110</v>
       </c>
@@ -4840,7 +5776,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>111</v>
       </c>
@@ -4857,7 +5793,7 @@
         <v>264271.33</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="3">
         <v>113</v>
       </c>
@@ -4879,7 +5815,7 @@
         <v>78113.88</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="3">
         <v>114</v>
       </c>
@@ -4901,7 +5837,7 @@
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="3">
         <v>115</v>
       </c>
@@ -4923,7 +5859,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="3">
         <v>116</v>
       </c>
@@ -4945,7 +5881,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="3">
         <v>117</v>
       </c>
@@ -4967,15 +5903,15 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>118</v>
       </c>
       <c r="B101" t="s">
+        <v>438</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -4984,7 +5920,7 @@
         <v>4777.47</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>120</v>
       </c>
@@ -5001,7 +5937,7 @@
         <v>1361.25</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>122</v>
       </c>
@@ -5018,7 +5954,7 @@
         <v>590.04999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>124</v>
       </c>
@@ -5035,15 +5971,15 @@
         <v>67657.78</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -5052,7 +5988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>128</v>
       </c>
@@ -5069,15 +6005,15 @@
         <v>3245.59</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>130</v>
       </c>
       <c r="B107" t="s">
+        <v>441</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -5086,7 +6022,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="3">
         <v>132</v>
       </c>
@@ -5108,7 +6044,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="3">
         <v>133</v>
       </c>
@@ -5130,7 +6066,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="3">
         <v>134</v>
       </c>
@@ -5152,7 +6088,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>135</v>
       </c>
@@ -5169,15 +6105,15 @@
         <v>305.64</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="3">
         <v>137</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -5191,15 +6127,15 @@
         <v>-941.58</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="3">
         <v>138</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="D113" s="3">
         <v>2</v>
@@ -5213,15 +6149,15 @@
       </c>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="3">
         <v>139</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
@@ -5235,15 +6171,15 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="3">
         <v>140</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
@@ -5257,15 +6193,15 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="3">
         <v>141</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D116" s="3">
         <v>5</v>
@@ -5279,15 +6215,15 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>142</v>
       </c>
       <c r="B117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D117">
         <v>6</v>
@@ -5296,15 +6232,15 @@
         <v>-950.14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="3">
         <v>144</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D118" s="3">
         <v>2</v>
@@ -5318,15 +6254,15 @@
       </c>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="3">
         <v>145</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="D119" s="3">
         <v>3</v>
@@ -5340,15 +6276,15 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="3">
         <v>146</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="D120" s="3">
         <v>4</v>
@@ -5362,15 +6298,15 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="3">
         <v>147</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="D121" s="3">
         <v>5</v>
@@ -5384,15 +6320,15 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>148</v>
       </c>
       <c r="B122" t="s">
+        <v>460</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -5401,9 +6337,9 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="B124" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -5422,15 +6358,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
@@ -5439,22 +6375,22 @@
     <col min="5" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="26.25">
       <c r="B2" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5471,7 +6407,7 @@
         <v>593860.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -5488,7 +6424,7 @@
         <v>512146.38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -5505,7 +6441,7 @@
         <v>512146.38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -5522,7 +6458,7 @@
         <v>3671.75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -5539,7 +6475,7 @@
         <v>3671.75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5561,7 +6497,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -5578,7 +6514,7 @@
         <v>273474.17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="3" customFormat="1">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -5595,7 +6531,7 @@
         <v>189984</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="3" customFormat="1">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5617,7 +6553,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="3" customFormat="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -5634,7 +6570,7 @@
         <v>83490.17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5656,7 +6592,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="3" customFormat="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5678,7 +6614,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5695,7 +6631,7 @@
         <v>173645.56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5712,7 +6648,7 @@
         <v>173645.56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="3" customFormat="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5734,7 +6670,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1">
       <c r="A21">
         <v>21</v>
       </c>
@@ -5756,7 +6692,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="3" customFormat="1">
       <c r="A22">
         <v>23</v>
       </c>
@@ -5778,7 +6714,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="3" customFormat="1">
       <c r="A23">
         <v>25</v>
       </c>
@@ -5800,7 +6736,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="3" customFormat="1">
       <c r="A24">
         <v>27</v>
       </c>
@@ -5822,7 +6758,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="3" customFormat="1">
       <c r="A25">
         <v>29</v>
       </c>
@@ -5844,7 +6780,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1">
       <c r="A26">
         <v>31</v>
       </c>
@@ -5866,7 +6802,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1">
       <c r="A27">
         <v>33</v>
       </c>
@@ -5888,7 +6824,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="3" customFormat="1">
       <c r="A28">
         <v>35</v>
       </c>
@@ -5910,7 +6846,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>37</v>
       </c>
@@ -5927,7 +6863,7 @@
         <v>61354.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>38</v>
       </c>
@@ -5944,7 +6880,7 @@
         <v>61354.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1">
       <c r="A31">
         <v>39</v>
       </c>
@@ -5966,7 +6902,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="3" customFormat="1">
       <c r="A32">
         <v>41</v>
       </c>
@@ -5988,7 +6924,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="3" customFormat="1">
       <c r="A33" s="3">
         <v>43</v>
       </c>
@@ -6005,7 +6941,7 @@
         <v>81714.009999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>44</v>
       </c>
@@ -6022,7 +6958,7 @@
         <v>81714.009999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="3" customFormat="1">
       <c r="A35" s="3">
         <v>45</v>
       </c>
@@ -6039,7 +6975,7 @@
         <v>80964.009999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>46</v>
       </c>
@@ -6056,7 +6992,7 @@
         <v>80964.009999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="3" customFormat="1">
       <c r="A37">
         <v>47</v>
       </c>
@@ -6078,7 +7014,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="3" customFormat="1">
       <c r="A38">
         <v>49</v>
       </c>
@@ -6100,7 +7036,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="3" customFormat="1">
       <c r="A39" s="3">
         <v>51</v>
       </c>
@@ -6117,7 +7053,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="3" customFormat="1">
       <c r="A40" s="3">
         <v>52</v>
       </c>
@@ -6134,7 +7070,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="3" customFormat="1">
       <c r="A41">
         <v>53</v>
       </c>
@@ -6156,7 +7092,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="3" customFormat="1">
       <c r="A42">
         <v>55</v>
       </c>
@@ -6178,7 +7114,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -6195,7 +7131,7 @@
         <v>-170316.01</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -6212,7 +7148,7 @@
         <v>-170316.01</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>59</v>
       </c>
@@ -6229,7 +7165,7 @@
         <v>-170316.01</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="3" customFormat="1">
       <c r="A46" s="3">
         <v>60</v>
       </c>
@@ -6246,7 +7182,7 @@
         <v>-42010.11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>61</v>
       </c>
@@ -6263,7 +7199,7 @@
         <v>-799.19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="3" customFormat="1">
       <c r="A48">
         <v>62</v>
       </c>
@@ -6285,7 +7221,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="3" customFormat="1">
       <c r="A49">
         <v>64</v>
       </c>
@@ -6307,7 +7243,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="3" customFormat="1">
       <c r="A50">
         <v>66</v>
       </c>
@@ -6329,7 +7265,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="3" customFormat="1">
       <c r="A51">
         <v>68</v>
       </c>
@@ -6351,7 +7287,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="3" customFormat="1">
       <c r="A52">
         <v>70</v>
       </c>
@@ -6373,7 +7309,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>72</v>
       </c>
@@ -6390,7 +7326,7 @@
         <v>-606.80999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="3" customFormat="1">
       <c r="A54">
         <v>73</v>
       </c>
@@ -6412,7 +7348,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="3" customFormat="1">
       <c r="A55">
         <v>75</v>
       </c>
@@ -6434,7 +7370,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="3" customFormat="1">
       <c r="A56">
         <v>77</v>
       </c>
@@ -6456,7 +7392,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="3" customFormat="1">
       <c r="A57">
         <v>79</v>
       </c>
@@ -6478,7 +7414,7 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="3" customFormat="1">
       <c r="A58" s="3">
         <v>81</v>
       </c>
@@ -6495,7 +7431,7 @@
         <v>-40604.11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="3" customFormat="1">
       <c r="A59">
         <v>82</v>
       </c>
@@ -6517,7 +7453,7 @@
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>84</v>
       </c>
@@ -6534,7 +7470,7 @@
         <v>-22901.919999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>85</v>
       </c>
@@ -6551,7 +7487,7 @@
         <v>-76.989999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="3" customFormat="1">
       <c r="A62">
         <v>86</v>
       </c>
@@ -6573,7 +7509,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="3" customFormat="1">
       <c r="A63" s="3">
         <v>88</v>
       </c>
@@ -6590,7 +7526,7 @@
         <v>-22824.93</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="3" customFormat="1">
       <c r="A64">
         <v>89</v>
       </c>
@@ -6612,7 +7548,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="3" customFormat="1">
       <c r="A65" s="3">
         <v>91</v>
       </c>
@@ -6629,7 +7565,7 @@
         <v>-57027.839999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="3" customFormat="1">
       <c r="A66" s="3">
         <v>92</v>
       </c>
@@ -6646,7 +7582,7 @@
         <v>-57027.839999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="3" customFormat="1">
       <c r="A67">
         <v>93</v>
       </c>
@@ -6668,7 +7604,7 @@
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="3" customFormat="1">
       <c r="A68" s="3">
         <v>95</v>
       </c>
@@ -6685,7 +7621,7 @@
         <v>-48376.14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="3">
         <v>96</v>
       </c>
@@ -6707,7 +7643,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>97</v>
       </c>
@@ -6724,7 +7660,7 @@
         <v>-48376.14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="3">
         <v>99</v>
       </c>
@@ -6746,7 +7682,7 @@
         <v>-301732.03999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="3">
         <v>100</v>
       </c>
@@ -6768,7 +7704,7 @@
       </c>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="3">
         <v>101</v>
       </c>
@@ -6790,7 +7726,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="3">
         <v>102</v>
       </c>
@@ -6812,7 +7748,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="3">
         <v>103</v>
       </c>
@@ -6834,7 +7770,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>104</v>
       </c>
@@ -6851,7 +7787,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="3">
         <v>106</v>
       </c>
@@ -6873,7 +7809,7 @@
       </c>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="3">
         <v>107</v>
       </c>
@@ -6895,7 +7831,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="3">
         <v>108</v>
       </c>
@@ -6917,7 +7853,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="3">
         <v>109</v>
       </c>
@@ -6939,7 +7875,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>110</v>
       </c>
@@ -6956,7 +7892,7 @@
         <v>-142203.51</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>112</v>
       </c>
@@ -6973,7 +7909,7 @@
         <v>-204380.95</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="3">
         <v>114</v>
       </c>
@@ -6995,7 +7931,7 @@
       </c>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="3">
         <v>115</v>
       </c>
@@ -7017,7 +7953,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="3">
         <v>116</v>
       </c>
@@ -7039,7 +7975,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="3">
         <v>117</v>
       </c>
@@ -7061,7 +7997,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>118</v>
       </c>
@@ -7078,7 +8014,7 @@
         <v>126625.06</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>120</v>
       </c>
@@ -7095,11 +8031,11 @@
         <v>-61772.639999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="C89" s="1"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="B90" s="7" t="s">
         <v>229</v>
       </c>
@@ -7115,21 +8051,21 @@
         <v>-121812.33999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="C91" s="1"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="B92" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="B93" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="3">
         <v>122</v>
       </c>
@@ -7151,7 +8087,7 @@
         <v>-565360</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="3">
         <v>123</v>
       </c>
@@ -7173,7 +8109,7 @@
       </c>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="3">
         <v>124</v>
       </c>
@@ -7195,7 +8131,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="3">
         <v>125</v>
       </c>
@@ -7217,7 +8153,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="3">
         <v>126</v>
       </c>
@@ -7239,7 +8175,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>127</v>
       </c>
@@ -7256,7 +8192,7 @@
         <v>-565360</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="3">
         <v>129</v>
       </c>
@@ -7278,7 +8214,7 @@
         <v>254206.53</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="3">
         <v>130</v>
       </c>
@@ -7300,7 +8236,7 @@
       </c>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="3">
         <v>131</v>
       </c>
@@ -7322,7 +8258,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="3">
         <v>132</v>
       </c>
@@ -7344,7 +8280,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="3">
         <v>133</v>
       </c>
@@ -7366,7 +8302,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>134</v>
       </c>
@@ -7383,7 +8319,7 @@
         <v>254206.53</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="3">
         <v>136</v>
       </c>
@@ -7405,7 +8341,7 @@
         <v>189341.13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="3">
         <v>137</v>
       </c>
@@ -7427,7 +8363,7 @@
       </c>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="3">
         <v>138</v>
       </c>
@@ -7449,7 +8385,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="3">
         <v>139</v>
       </c>
@@ -7471,7 +8407,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="3">
         <v>140</v>
       </c>
@@ -7493,7 +8429,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>141</v>
       </c>
@@ -7510,7 +8446,7 @@
         <v>3002.96</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>143</v>
       </c>
@@ -7527,7 +8463,7 @@
         <v>30111.61</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>145</v>
       </c>
@@ -7544,7 +8480,7 @@
         <v>42.19</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>147</v>
       </c>
@@ -7561,7 +8497,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>149</v>
       </c>
@@ -7578,7 +8514,7 @@
         <v>108881.12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>151</v>
       </c>
@@ -7595,7 +8531,7 @@
         <v>5885.9</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>153</v>
       </c>
@@ -7612,7 +8548,7 @@
         <v>40604.11</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="3">
         <v>155</v>
       </c>
@@ -7634,7 +8570,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="3">
         <v>156</v>
       </c>
@@ -7656,7 +8592,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="3">
         <v>157</v>
       </c>
@@ -7678,7 +8614,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>158</v>
       </c>
@@ -7695,7 +8631,7 @@
         <v>656.84</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>160</v>
       </c>
@@ -7712,7 +8648,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>162</v>
       </c>
@@ -7729,7 +8665,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>164</v>
       </c>
@@ -7746,7 +8682,7 @@
         <v>36.36</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="B127" s="7" t="s">
         <v>229</v>
       </c>
@@ -7770,7 +8706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC762C6-0379-43F4-AE2C-4C3DECA054F9}">
   <dimension ref="A2:C140"/>
   <sheetViews>
@@ -7778,7 +8714,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="36" customWidth="1"/>
     <col min="2" max="2" width="42.140625" style="36" customWidth="1"/>
@@ -7786,23 +8722,23 @@
     <col min="4" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="37" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="B3" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="38">
         <v>1</v>
       </c>
@@ -7813,1492 +8749,1492 @@
         <v>6126291.1699999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>275</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>276</v>
       </c>
       <c r="C5" s="39">
         <v>339278.36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="39">
         <v>339278.36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="39">
         <v>51822.17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="39">
         <v>51822.17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>280</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>281</v>
       </c>
       <c r="C9" s="39">
         <v>199.81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" s="39">
         <v>51622.36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="39">
         <v>72370.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="39">
         <v>72370.17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="39">
         <v>72370.17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="39">
         <v>153179.07999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="39">
         <v>153179.07999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="39">
         <v>81134.34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" s="39">
         <v>72044.740000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>295</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>296</v>
       </c>
       <c r="C24" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="39">
         <v>61156.94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C27" s="39">
         <v>61156.94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="39">
         <v>61156.94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>301</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>302</v>
       </c>
       <c r="C29" s="39">
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="36" t="s">
         <v>303</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>304</v>
       </c>
       <c r="C30" s="39">
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>306</v>
       </c>
       <c r="C31" s="39">
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>307</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>308</v>
       </c>
       <c r="C32" s="39">
         <v>199832.32000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="39">
         <v>199832.32000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C34" s="39">
         <v>199832.32000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="39">
         <v>199832.32000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="38" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="39">
         <v>155556.31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="39">
         <v>44276.01</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="38" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C39" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="38" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="36" t="s">
         <v>317</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>318</v>
       </c>
       <c r="C41" s="39">
         <v>5587180.4900000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="39">
         <v>5587180.4900000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="39">
         <v>5587180.4900000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="36" t="s">
         <v>321</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>322</v>
       </c>
       <c r="C44" s="39">
         <v>5587180.4900000002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" s="36" t="s">
         <v>323</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>324</v>
       </c>
       <c r="C45" s="39">
         <v>5587180.4900000002</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="38">
         <v>2</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="39">
         <v>-5824559.1299999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" s="36" t="s">
         <v>326</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>327</v>
       </c>
       <c r="C47" s="39">
         <v>-5824559.1299999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="39">
         <v>-5824559.1299999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="38" t="s">
         <v>81</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="39">
         <v>-1162.17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="38" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="39">
         <v>-624.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="38" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="38" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C54" s="39">
         <v>-624.79</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" s="39">
         <v>-537.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" s="36" t="s">
         <v>335</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>336</v>
       </c>
       <c r="C56" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="38" t="s">
         <v>97</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="38" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="38" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" s="39">
         <v>-537.38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="38" t="s">
         <v>105</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="38" t="s">
         <v>109</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="39">
         <v>-149771.10999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="38" t="s">
         <v>111</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="39">
         <v>-3851.11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="39">
         <v>-3851.11</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="38" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C65" s="39">
         <v>-145920</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="38" t="s">
         <v>117</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C66" s="39">
         <v>-145920</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" s="36" t="s">
         <v>347</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>348</v>
       </c>
       <c r="C67" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" s="36" t="s">
         <v>349</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>350</v>
       </c>
       <c r="C68" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69" s="36" t="s">
         <v>351</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>352</v>
       </c>
       <c r="C69" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="38" t="s">
         <v>119</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C70" s="39">
         <v>-57027.839999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="38" t="s">
         <v>121</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C71" s="39">
         <v>-57027.839999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="38" t="s">
         <v>123</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C72" s="39">
         <v>-57027.839999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="38" t="s">
         <v>125</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C73" s="39">
         <v>-5616598.0099999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="36" t="s">
         <v>356</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>357</v>
       </c>
       <c r="C74" s="39">
         <v>-18610.169999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" s="36" t="s">
         <v>358</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>359</v>
       </c>
       <c r="C75" s="39">
         <v>-18610.169999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="38" t="s">
         <v>127</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C76" s="39">
         <v>-5597987.8399999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="38" t="s">
         <v>129</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C77" s="39">
         <v>-5597987.8399999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="38">
         <v>3</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C78" s="39">
         <v>-239959.4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B79" s="36" t="s">
         <v>363</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>364</v>
       </c>
       <c r="C79" s="39">
         <v>-20000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C80" s="39">
         <v>-20000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="38" t="s">
         <v>137</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C81" s="39">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="38" t="s">
         <v>139</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C82" s="39">
         <v>-20000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="38" t="s">
         <v>141</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83" s="39">
         <v>-20000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" s="36" t="s">
         <v>368</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>369</v>
       </c>
       <c r="C84" s="39">
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="39">
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="38" t="s">
         <v>147</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C86" s="39">
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="38" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C87" s="39">
         <v>-346584.46</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="38" t="s">
         <v>151</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C88" s="39">
         <v>-142203.51</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="38" t="s">
         <v>153</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C89" s="39">
         <v>-204380.95</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B90" s="36" t="s">
         <v>373</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>374</v>
       </c>
       <c r="C90" s="39">
         <v>126625.06</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C91" s="39">
         <v>126625.06</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C92" s="39">
         <v>126625.06</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C93" s="39">
         <v>126625.06</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="38" t="s">
         <v>163</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C94" s="39">
         <v>126625.06</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C95" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="38">
         <v>4</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C96" s="39">
         <v>-773977</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" s="36" t="s">
         <v>379</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>380</v>
       </c>
       <c r="C97" s="39">
         <v>-773977</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" s="36" t="s">
         <v>381</v>
-      </c>
-      <c r="B98" s="36" t="s">
-        <v>382</v>
       </c>
       <c r="C98" s="39">
         <v>-773977</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="38" t="s">
         <v>173</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C99" s="39">
         <v>-773977</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="38" t="s">
         <v>175</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C100" s="39">
         <v>-773977</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="38" t="s">
         <v>177</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C101" s="39">
         <v>-773977</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="38">
         <v>5</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C102" s="39">
         <v>596244.65</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B103" s="36" t="s">
         <v>386</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>387</v>
       </c>
       <c r="C103" s="39">
         <v>14500</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B104" s="36" t="s">
         <v>388</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>389</v>
       </c>
       <c r="C104" s="39">
         <v>14500</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B105" s="36" t="s">
         <v>390</v>
-      </c>
-      <c r="B105" s="36" t="s">
-        <v>391</v>
       </c>
       <c r="C105" s="39">
         <v>14500</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B106" s="36" t="s">
         <v>392</v>
-      </c>
-      <c r="B106" s="36" t="s">
-        <v>393</v>
       </c>
       <c r="C106" s="39">
         <v>14500</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107" s="36" t="s">
         <v>394</v>
-      </c>
-      <c r="B107" s="36" t="s">
-        <v>395</v>
       </c>
       <c r="C107" s="39">
         <v>14500</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="B108" s="36" t="s">
         <v>396</v>
-      </c>
-      <c r="B108" s="36" t="s">
-        <v>397</v>
       </c>
       <c r="C108" s="39">
         <v>581744.65</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C109" s="39">
         <v>581744.65</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="38" t="s">
         <v>185</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C110" s="39">
         <v>581744.65</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="38" t="s">
         <v>187</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C111" s="39">
         <v>581744.65</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="38" t="s">
         <v>189</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C112" s="39">
         <v>581744.65</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="38">
         <v>6</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C113" s="39">
         <v>128475.32</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C114" s="39">
         <v>128475.32</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C115" s="39">
         <v>121430.27</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="38" t="s">
         <v>197</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C116" s="39">
         <v>121430.27</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="38" t="s">
         <v>199</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C117" s="39">
         <v>121430.27</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B118" s="36" t="s">
         <v>403</v>
-      </c>
-      <c r="B118" s="36" t="s">
-        <v>404</v>
       </c>
       <c r="C118" s="39">
         <v>1394.26</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="38" t="s">
         <v>201</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C119" s="39">
         <v>849</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="B120" s="36" t="s">
         <v>406</v>
-      </c>
-      <c r="B120" s="36" t="s">
-        <v>407</v>
       </c>
       <c r="C120" s="39">
         <v>2696.04</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="38" t="s">
         <v>203</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C121" s="39">
         <v>11750.04</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="38" t="s">
         <v>205</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C122" s="39">
         <v>361.08</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="38" t="s">
         <v>207</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C123" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="38" t="s">
         <v>209</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C124" s="39">
         <v>71369.69</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" s="36" t="s">
         <v>412</v>
-      </c>
-      <c r="B125" s="36" t="s">
-        <v>413</v>
       </c>
       <c r="C125" s="39">
         <v>292.60000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="38" t="s">
         <v>211</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C126" s="39">
         <v>5432.95</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="38" t="s">
         <v>213</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C127" s="39">
         <v>27284.61</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="B128" s="36" t="s">
         <v>416</v>
-      </c>
-      <c r="B128" s="36" t="s">
-        <v>417</v>
       </c>
       <c r="C128" s="39">
         <v>7045.05</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="38" t="s">
         <v>216</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C129" s="39">
         <v>7045.05</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="38" t="s">
         <v>217</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C130" s="39">
         <v>7045.05</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="38" t="s">
         <v>219</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C131" s="39">
         <v>4542.84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="38" t="s">
         <v>221</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C132" s="39">
         <v>624.38</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="38" t="s">
         <v>223</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C133" s="39">
         <v>1877.83</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="38">
         <v>7</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C134" s="39">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B135" s="36" t="s">
         <v>422</v>
-      </c>
-      <c r="B135" s="36" t="s">
-        <v>423</v>
       </c>
       <c r="C135" s="39">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B136" s="36" t="s">
         <v>424</v>
-      </c>
-      <c r="B136" s="36" t="s">
-        <v>425</v>
       </c>
       <c r="C136" s="39">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C137" s="39">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B138" s="36" t="s">
         <v>427</v>
-      </c>
-      <c r="B138" s="36" t="s">
-        <v>428</v>
       </c>
       <c r="C138" s="39">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B139" s="36" t="s">
         <v>429</v>
-      </c>
-      <c r="B139" s="36" t="s">
-        <v>430</v>
       </c>
       <c r="C139" s="39">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="38"/>
       <c r="B140" s="42"/>
     </row>

--- a/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
+++ b/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE I - Planeacion y Riesgos\4000 Respuesta a riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F3114F-60DF-4D8C-9A93-2C1EC295AD01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4379F9E9-2D5F-4683-A8BB-36C1BD352B2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trabajo realizado" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="522">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -1435,9 +1435,6 @@
     <t>Las ventas de la compania se realizan unicamente a su parte relacionada: Telconet, en respuesta a sus necesidades y requerimientos de equipos. Hasta octubre 2020 las ventas de baterias se han reducido en un 39% pues, debido a la pandemia de covid-19 ha aumentado el trafico de internet pero no asi el numero de instalaciones</t>
   </si>
   <si>
-    <t>Los gastos de administracion y ventas incluyen principalmente honorarios pagados por servicios profesionales, los cuales ascendieron a US$112 mil en el 2019 y hasta oct-20 ascienden a US$70 mil (disminucion de US$32 mil); en adicion, en el 2019 se registraron US$30 mil por concepto de gastos de movilizacion</t>
-  </si>
-  <si>
     <t>Telcodata registra la provision de impuesto a la renta al cierre del ejercicio, en diciembre de cada anio, motivo por el cual se registra esta variacion en los estados financieros provisionales a oct-20</t>
   </si>
   <si>
@@ -1579,16 +1576,31 @@
     <t>Revisamos todas las variaciones por un monto mayor o menos a la materialidad de desempeno US$14,925</t>
   </si>
   <si>
-    <t>A pesar de que los saldos se han reducido en 601% los saldos de efectivo no son significativos en su totalidad</t>
-  </si>
-  <si>
     <t>…Efectivo y equivalentes de efectivo</t>
   </si>
   <si>
-    <t>Los saldos de cartera por cobrar son cuentas con Telconet, compania relacionada, producto de las ventas de baterias en el curso de las operaciones. Los dias promedio de cuentas por cobrar se han incrementado de 61 a 146 dias pues lo pagos y flujos de fondos hacia Telcodata se manejan en funcion de sus necesidades operativas.</t>
-  </si>
-  <si>
-    <t>Este rubro incluye: a) Cuenta por cobrar registrada a Jan Topic por US$61 mil sin movimiento desde anios anteriores</t>
+    <t>Los saldos de cartera por cobrar son cuentas con Telconet, compania relacionada, producto de las ventas de baterias en el curso de las operaciones. Los dias promedio de cuentas por cobrar se han incrementado de 61 a 146 dias puesto que los pagos y flujos de fondos hacia Telcodata se manejan en funcion de sus necesidades operativas.</t>
+  </si>
+  <si>
+    <t>A pesar de la varaicion del 601% los saldos de efectivo no son significativos en su totalidad y no amerita analisis de esta variacion.</t>
+  </si>
+  <si>
+    <t>A oct-20 este rubro incluye: a) Cuenta por cobrar registrada a Jan Topic por US$61 mil sin movimiento desde anios anteriores y, b) US$72 mil por cobrar a Telconet, saldo de cuenta corriente que por otras transacciones y que proviene desde el anio 2019. Ver nuestras conclusiones en la pestana "Trabajo realizado"</t>
+  </si>
+  <si>
+    <t>De acuerdo con la contabilidad, a oct-20 se mantiene un mayor nivel de inventarios en transito en comparacion con dic-19 pues la politica contable es que no existen compras para stock y no se mantiene control de inventarios de mercaderias en existencia. Ver nuestras conclusiones en "Trabajo realizado"</t>
+  </si>
+  <si>
+    <t>Los proveedores locales de Telcodata son aquellos relacionados principalmente con la importacion de mercaderias (Despachador de aduana, fletes, deposito aduanero, etc.) a los cuales se cancela su factura de contado o a muy corto plazo. El proveedor de baterias "Everexceed" es de China y a oct-20 no presenta saldo pendiente de pago.</t>
+  </si>
+  <si>
+    <t>Saldo por pagar a Telconet que proviene del anio 2019. Ver conclusiones en "Trabajo realizado"</t>
+  </si>
+  <si>
+    <t>La provision para impuesto a la renta por pagar se provisiona unicamente al cierre del ejercicio (dic.) por lo que no se refleja este pasivo hasta oct-20</t>
+  </si>
+  <si>
+    <t>Los gastos de administracion y ventas incluyen principalmente honorarios pagados por servicios profesionales, los cuales ascendieron a US$112 mil en el 2019 y hasta oct-20 representan US$70 mil (disminucion de US$32 mil); en adicion, en el 2019 se registraron US$30 mil por concepto de gastos de movilizacion</t>
   </si>
 </sst>
 </file>
@@ -2007,28 +2019,11 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2053,6 +2048,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2408,530 +2420,525 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="79" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="53"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="53"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="76" t="s">
+        <v>473</v>
+      </c>
+      <c r="O3" s="76"/>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="54"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75">
+        <v>44134</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="54"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="54"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="76" t="s">
+        <v>476</v>
+      </c>
+      <c r="O5" s="76"/>
+      <c r="P5" s="54"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>510</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
-        <v>470</v>
-      </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="55"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="55"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="58" t="s">
-        <v>475</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="62">
-        <v>44134</v>
-      </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="55"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="55"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="O5" s="60"/>
-      <c r="P5" s="55"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>511</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="55"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="53"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="66"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
       <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="O8" s="62"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="63" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="O8" s="69"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="70" t="s">
+      <c r="C9" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="O9" s="69"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="70" t="s">
+      <c r="C10" s="61" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="O10" s="69"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="70" t="s">
+      <c r="C11" s="61" t="s">
         <v>484</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="O11" s="62"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="O11" s="69"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="71"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="O12" s="69"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="67" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="64"/>
+      <c r="C14" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="O13" s="69"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="71"/>
-      <c r="C14" s="68" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="64"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="O15" s="62"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="O14" s="69"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="71"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="O15" s="69"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="67" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="63" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>512</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="O17" s="62"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>488</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="O16" s="69"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="70" t="s">
-        <v>480</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="O17" s="69"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="70" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="68" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="O18" s="62"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="61" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="O18" s="69"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="70" t="s">
-        <v>484</v>
-      </c>
-      <c r="C19" s="68" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="65"/>
+      <c r="K19" s="61"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="63" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="72"/>
-      <c r="K19" s="68"/>
-      <c r="O19" s="69"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="70" t="s">
+      <c r="C20" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="O20" s="69"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="70" t="s">
+      <c r="C21" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="O21" s="62"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="O21" s="69"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="70" t="s">
+      <c r="C22" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="O22" s="62"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="O22" s="69"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="70" t="s">
+      <c r="C23" s="61" t="s">
         <v>497</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="O23" s="62"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="64"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="O23" s="69"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="71"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="O24" s="69"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="67" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="O25" s="62"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.5">
+      <c r="B26" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="O25" s="69"/>
-    </row>
-    <row r="26" spans="2:15" ht="16.5">
-      <c r="B26" s="73" t="s">
+      <c r="C26" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="O26" s="62"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5">
+      <c r="B27" s="66" t="s">
         <v>501</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="O26" s="69"/>
-    </row>
-    <row r="27" spans="2:15" ht="16.5">
-      <c r="B27" s="73" t="s">
+      <c r="C27" t="s">
         <v>502</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="O27" s="62"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.5">
+      <c r="B28" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="O27" s="69"/>
-    </row>
-    <row r="28" spans="2:15" ht="16.5">
-      <c r="B28" s="73" t="s">
+      <c r="C28" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="2:15" ht="16.5">
+      <c r="B29" s="66" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="O28" s="69"/>
-    </row>
-    <row r="29" spans="2:15" ht="16.5">
-      <c r="B29" s="73" t="s">
+      <c r="C29" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="O29" s="62"/>
+    </row>
+    <row r="30" spans="2:15" ht="16.5">
+      <c r="B30" s="68" t="s">
         <v>507</v>
       </c>
-      <c r="O29" s="69"/>
-    </row>
-    <row r="30" spans="2:15" ht="16.5">
-      <c r="B30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>508</v>
       </c>
-      <c r="C30" s="76" t="s">
-        <v>509</v>
-      </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="77"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:O6"/>
@@ -2942,6 +2949,11 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2951,12 +2963,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3018,9 +3030,9 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="30">
       <c r="B7" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C7" s="17">
         <f>+'BC20'!G9</f>
@@ -3041,8 +3053,8 @@
         <f>+F7/C7</f>
         <v>-6.0086277653705933</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>514</v>
+      <c r="H7" s="49" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
@@ -3064,15 +3076,15 @@
         <f t="shared" ref="F8:F14" si="0">+C8-D8</f>
         <v>-73042.51999999999</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="71">
         <f t="shared" ref="G8:G14" si="1">+F8/C8</f>
         <v>-0.62355189678215972</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60">
       <c r="B9" s="16" t="s">
         <v>240</v>
       </c>
@@ -3092,12 +3104,12 @@
         <f t="shared" si="0"/>
         <v>-6152.039999999979</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="71">
         <f t="shared" si="1"/>
         <v>-4.4420642554279938E-2</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3119,13 +3131,13 @@
         <f t="shared" si="0"/>
         <v>-22286.570000000007</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="71">
         <f t="shared" si="1"/>
         <v>-0.14724312047801064</v>
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="45">
       <c r="B11" s="16" t="s">
         <v>235</v>
       </c>
@@ -3144,11 +3156,13 @@
         <f t="shared" si="0"/>
         <v>76658.86</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="71">
         <f t="shared" si="1"/>
         <v>0.4840403536287497</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="49" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="13" t="s">
@@ -3268,7 +3282,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" ht="60">
       <c r="B19" s="16" t="s">
         <v>265</v>
       </c>
@@ -3287,11 +3301,13 @@
         <f t="shared" ref="F19:F22" si="2">+C19-D19</f>
         <v>-22904.92</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="71">
         <f t="shared" ref="G19:G22" si="3">+F19/C19</f>
         <v>7634.9733333333324</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="49" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="16" t="s">
@@ -3301,7 +3317,7 @@
         <f>-'BC20'!E59</f>
         <v>99328.9</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="72">
         <f>-'BC19'!G68+57028</f>
         <v>105404.14</v>
       </c>
@@ -3312,13 +3328,15 @@
         <f t="shared" si="2"/>
         <v>-6075.2400000000052</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="71">
         <f t="shared" si="3"/>
         <v>-6.1162863980170984E-2</v>
       </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="H20" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30">
       <c r="B21" s="16" t="s">
         <v>241</v>
       </c>
@@ -3326,7 +3344,7 @@
         <f>-'BC20'!G41</f>
         <v>1436.66</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="72">
         <f>-'BC19'!G46</f>
         <v>42010.11</v>
       </c>
@@ -3337,11 +3355,13 @@
         <f t="shared" si="2"/>
         <v>-40573.449999999997</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="71">
         <f t="shared" si="3"/>
         <v>-28.241511561538566</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="49" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="13" t="s">
@@ -3687,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3809,7 +3829,7 @@
         <v>-1.3455189885368559</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3908,7 +3928,7 @@
         <v>0.28474152026322341</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4071,7 +4091,7 @@
         <v>0.51551571273766128</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -4135,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3AE88A-6268-49E4-A82A-528B34E089E3}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
+++ b/FASE I - Planeacion y Riesgos/4000 Respuesta a riesgos/4011 Revision analitica preliminar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE I - Planeacion y Riesgos\4000 Respuesta a riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4379F9E9-2D5F-4683-A8BB-36C1BD352B2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971E72A-9F5D-4223-B49B-791AFD903CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="520">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -1330,9 +1330,6 @@
     <t>Dias de cartera</t>
   </si>
   <si>
-    <t>Ingresos por ventas</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESTADO DE  SITUACION </t>
   </si>
   <si>
@@ -1432,9 +1429,6 @@
     <t>Proyección</t>
   </si>
   <si>
-    <t>Las ventas de la compania se realizan unicamente a su parte relacionada: Telconet, en respuesta a sus necesidades y requerimientos de equipos. Hasta octubre 2020 las ventas de baterias se han reducido en un 39% pues, debido a la pandemia de covid-19 ha aumentado el trafico de internet pero no asi el numero de instalaciones</t>
-  </si>
-  <si>
     <t>Telcodata registra la provision de impuesto a la renta al cierre del ejercicio, en diciembre de cada anio, motivo por el cual se registra esta variacion en los estados financieros provisionales a oct-20</t>
   </si>
   <si>
@@ -1534,45 +1528,12 @@
     <t>CONCLUSIONES:</t>
   </si>
   <si>
-    <t>Ê</t>
-  </si>
-  <si>
-    <t>Solicitar autorización para revisión de bodega y comprobar si los elementos han recibido daño o si se estan amortizando correctamente</t>
-  </si>
-  <si>
-    <t>Ë</t>
-  </si>
-  <si>
-    <t>Revisar si los seguros adquiridos para vehiculos o personales estan siendo correctamente amortizados</t>
-  </si>
-  <si>
-    <t>Ì</t>
-  </si>
-  <si>
-    <t>Revisión si los proyectores se están depreciando correctamente y en cuanto tiempo plazo</t>
-  </si>
-  <si>
-    <t>Í</t>
-  </si>
-  <si>
-    <t>Pedir a los contadores los comprobantes de pago sobre las inversiones realizadas por los accionistas</t>
-  </si>
-  <si>
-    <t>Î</t>
-  </si>
-  <si>
-    <t>Actualmente estos valores de Retenciones, no encuentro soporte de estos valores, según lo declarado es de $ 80.524 y de retenciones efectuadas por $ 34.000.</t>
-  </si>
-  <si>
     <t>SERVICIOS TELCODATA S.A</t>
   </si>
   <si>
     <t>Al 31 de diciembre del 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Aunque se han vendido menos unidades se han mantenido los precios de venta del anio pasado, motivo por el cual no encontramos explicacion razonable para que los margenes brutos hayan disminuido del 55% en 2019 a 30% en 2020. Ver conclusiones en pestana de "Trabajo realizado" </t>
-  </si>
-  <si>
     <t>Revisamos todas las variaciones por un monto mayor o menos a la materialidad de desempeno US$14,925</t>
   </si>
   <si>
@@ -1582,9 +1543,6 @@
     <t>Los saldos de cartera por cobrar son cuentas con Telconet, compania relacionada, producto de las ventas de baterias en el curso de las operaciones. Los dias promedio de cuentas por cobrar se han incrementado de 61 a 146 dias puesto que los pagos y flujos de fondos hacia Telcodata se manejan en funcion de sus necesidades operativas.</t>
   </si>
   <si>
-    <t>A pesar de la varaicion del 601% los saldos de efectivo no son significativos en su totalidad y no amerita analisis de esta variacion.</t>
-  </si>
-  <si>
     <t>A oct-20 este rubro incluye: a) Cuenta por cobrar registrada a Jan Topic por US$61 mil sin movimiento desde anios anteriores y, b) US$72 mil por cobrar a Telconet, saldo de cuenta corriente que por otras transacciones y que proviene desde el anio 2019. Ver nuestras conclusiones en la pestana "Trabajo realizado"</t>
   </si>
   <si>
@@ -1601,6 +1559,42 @@
   </si>
   <si>
     <t>Los gastos de administracion y ventas incluyen principalmente honorarios pagados por servicios profesionales, los cuales ascendieron a US$112 mil en el 2019 y hasta oct-20 representan US$70 mil (disminucion de US$32 mil); en adicion, en el 2019 se registraron US$30 mil por concepto de gastos de movilizacion</t>
+  </si>
+  <si>
+    <t>Unidades vendidas</t>
+  </si>
+  <si>
+    <t>% margen</t>
+  </si>
+  <si>
+    <t>A pesar de la variacion del 601% los saldos de efectivo no son significativos en su totalidad y no ameritan analisis</t>
+  </si>
+  <si>
+    <t>Total ingresos por ventas</t>
+  </si>
+  <si>
+    <t>Precio promedio de venta</t>
+  </si>
+  <si>
+    <t>Hasta oct-20 se han vendido +682 unidades en comparacion con el anio 2019</t>
+  </si>
+  <si>
+    <t>Hasta oct-20 no se han facturado venta de servicios de mantenimiento de baterias</t>
+  </si>
+  <si>
+    <t>Ventas de baterias US$</t>
+  </si>
+  <si>
+    <t>Ventas de servicios US$</t>
+  </si>
+  <si>
+    <t>Costo unitario por bateria</t>
+  </si>
+  <si>
+    <t>Los precios de venta del 2020 se han reducido en comparacion con el anio pasado; estos precios de transferencia son fijados por acuerdo entre las partes.</t>
+  </si>
+  <si>
+    <t>Las ventas de la compania se realizan unicamente a su parte relacionada: Telconet, en respuesta a sus necesidades y requerimientos de equipos. Hasta octubre 2020 las ventas de baterias en dolares se han reducido, a pesar de la venta de mayores unidades, debido a reduccion en el precio de venta acordado entre Telcodata y Telconet</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1726,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +1749,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1942,7 +1948,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2037,34 +2043,87 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2408,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8BEF2D-39FE-432E-88FD-66CB1E3824AA}">
   <dimension ref="A1:BL30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2420,140 +2479,140 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="53"/>
-      <c r="B1" s="79" t="s">
-        <v>467</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="B1" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="54"/>
       <c r="B2" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+        <v>466</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="54"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="54"/>
       <c r="B3" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="74" t="s">
-        <v>472</v>
-      </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="76" t="s">
-        <v>473</v>
-      </c>
-      <c r="O3" s="76"/>
+      <c r="O3" s="84"/>
       <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="54"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="81" t="s">
+        <v>472</v>
+      </c>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="86">
         <v>44134</v>
       </c>
-      <c r="O4" s="75"/>
+      <c r="O4" s="86"/>
       <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="54"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74" t="s">
-        <v>475</v>
-      </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="76" t="s">
-        <v>476</v>
-      </c>
-      <c r="O5" s="76"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="O5" s="84"/>
       <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="54"/>
       <c r="B6" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
+        <v>475</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="81" t="s">
+        <v>472</v>
+      </c>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16">
@@ -2576,7 +2635,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -2591,10 +2650,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="63" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2608,10 +2667,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="63" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
@@ -2625,10 +2684,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="63" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -2655,7 +2714,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="60" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -2671,7 +2730,7 @@
     <row r="14" spans="1:16">
       <c r="B14" s="64"/>
       <c r="C14" s="61" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -2698,7 +2757,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="60" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -2713,10 +2772,10 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="63" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
@@ -2730,10 +2789,10 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="63" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -2747,10 +2806,10 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="63" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
@@ -2763,10 +2822,10 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="63" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
@@ -2780,10 +2839,10 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="63" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -2797,10 +2856,10 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="63" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -2814,10 +2873,10 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="63" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
@@ -2844,7 +2903,7 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="60" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -2858,12 +2917,8 @@
       <c r="O25" s="62"/>
     </row>
     <row r="26" spans="2:15" ht="16.5">
-      <c r="B26" s="66" t="s">
-        <v>499</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>500</v>
-      </c>
+      <c r="B26" s="77"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
@@ -2875,12 +2930,8 @@
       <c r="O26" s="62"/>
     </row>
     <row r="27" spans="2:15" ht="16.5">
-      <c r="B27" s="66" t="s">
-        <v>501</v>
-      </c>
-      <c r="C27" t="s">
-        <v>502</v>
-      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
       <c r="F27" s="61"/>
@@ -2892,12 +2943,8 @@
       <c r="O27" s="62"/>
     </row>
     <row r="28" spans="2:15" ht="16.5">
-      <c r="B28" s="66" t="s">
-        <v>503</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>504</v>
-      </c>
+      <c r="B28" s="77"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
@@ -2909,33 +2956,25 @@
       <c r="O28" s="62"/>
     </row>
     <row r="29" spans="2:15" ht="16.5">
-      <c r="B29" s="66" t="s">
-        <v>505</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>506</v>
-      </c>
+      <c r="B29" s="77"/>
+      <c r="C29" s="74"/>
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="2:15" ht="16.5">
-      <c r="B30" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>508</v>
-      </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="70"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2964,11 +3003,11 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3032,7 +3071,7 @@
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="B7" s="16" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C7" s="17">
         <f>+'BC20'!G9</f>
@@ -3054,7 +3093,7 @@
         <v>-6.0086277653705933</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
@@ -3076,12 +3115,12 @@
         <f t="shared" ref="F8:F14" si="0">+C8-D8</f>
         <v>-73042.51999999999</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="68">
         <f t="shared" ref="G8:G14" si="1">+F8/C8</f>
         <v>-0.62355189678215972</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60">
@@ -3104,17 +3143,17 @@
         <f t="shared" si="0"/>
         <v>-6152.039999999979</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="68">
         <f t="shared" si="1"/>
         <v>-4.4420642554279938E-2</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10" s="17">
         <f>+'BC20'!F19</f>
@@ -3131,7 +3170,7 @@
         <f t="shared" si="0"/>
         <v>-22286.570000000007</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="68">
         <f t="shared" si="1"/>
         <v>-0.14724312047801064</v>
       </c>
@@ -3156,58 +3195,58 @@
         <f t="shared" si="0"/>
         <v>76658.86</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="68">
         <f t="shared" si="1"/>
         <v>0.4840403536287497</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="20">
         <f>SUM(C7:C11)</f>
         <v>565890.26</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="20">
         <f>SUM(D7:D11)</f>
         <v>593860.3899999999</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="20">
         <f>SUM(E7:E11)</f>
         <v>539110</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>-27970.129999999888</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="79">
         <f t="shared" si="1"/>
         <v>-4.9426774017986966E-2</v>
       </c>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="18">
         <v>5587181</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
@@ -3301,12 +3340,12 @@
         <f t="shared" ref="F19:F22" si="2">+C19-D19</f>
         <v>-22904.92</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="68">
         <f t="shared" ref="G19:G22" si="3">+F19/C19</f>
         <v>7634.9733333333324</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -3317,7 +3356,7 @@
         <f>-'BC20'!E59</f>
         <v>99328.9</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="69">
         <f>-'BC19'!G68+57028</f>
         <v>105404.14</v>
       </c>
@@ -3328,12 +3367,12 @@
         <f t="shared" si="2"/>
         <v>-6075.2400000000052</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="68">
         <f t="shared" si="3"/>
         <v>-6.1162863980170984E-2</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30">
@@ -3344,7 +3383,7 @@
         <f>-'BC20'!G41</f>
         <v>1436.66</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="69">
         <f>-'BC19'!G46</f>
         <v>42010.11</v>
       </c>
@@ -3355,12 +3394,12 @@
         <f t="shared" si="2"/>
         <v>-40573.449999999997</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="68">
         <f t="shared" si="3"/>
         <v>-28.241511561538566</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -3677,15 +3716,15 @@
         <v>430</v>
       </c>
       <c r="C37" s="10">
-        <f>360/(+ER!C6/((BG!D8+BG!C8)/2))</f>
+        <f>360/(+ER!C12/((BG!D8+BG!C8)/2))</f>
         <v>146.2429334320309</v>
       </c>
       <c r="D37" s="10">
-        <f>360/(+ER!E6/((BG!E8+BG!D8)/2))</f>
+        <f>360/(+ER!E12/((BG!E8+BG!D8)/2))</f>
         <v>60.789148153388986</v>
       </c>
       <c r="E37" s="10">
-        <f>360/(+ER!F6/((BG!F8+72370)/2))</f>
+        <f>360/(+ER!F12/((BG!F8+72370)/2))</f>
         <v>-0.15391567375678883</v>
       </c>
       <c r="F37" s="10"/>
@@ -3705,22 +3744,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="92.5703125" customWidth="1"/>
+    <col min="9" max="9" width="97.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3740,10 +3781,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="C4" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" t="s">
         <v>463</v>
-      </c>
-      <c r="D4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3772,379 +3813,536 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="B6" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="17">
+    <row r="6" spans="1:9">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="73" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="91">
+        <v>1760</v>
+      </c>
+      <c r="D7" s="91">
+        <f>C7/10*12</f>
+        <v>2112</v>
+      </c>
+      <c r="E7" s="91">
+        <v>1430</v>
+      </c>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93">
+        <f>+D7-E7</f>
+        <v>682</v>
+      </c>
+      <c r="H7" s="89">
+        <f t="shared" ref="H7:H11" si="0">+G7/E7</f>
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="B8" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="91">
+        <f>+C10/C7</f>
+        <v>214.92045454545453</v>
+      </c>
+      <c r="D8" s="91">
+        <f>+D10/D7</f>
+        <v>214.92045454545453</v>
+      </c>
+      <c r="E8" s="91">
+        <f>+E10/E7</f>
+        <v>242.73426573426573</v>
+      </c>
+      <c r="F8" s="91" t="e">
+        <f>+F10/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="91">
+        <f>+D8-E8</f>
+        <v>-27.813811188811201</v>
+      </c>
+      <c r="H8" s="89">
+        <f t="shared" si="0"/>
+        <v>-0.11458543401227282</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="73"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="B10" s="90" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="87">
+        <v>378260</v>
+      </c>
+      <c r="D10" s="87">
+        <f>+C10/10*12</f>
+        <v>453912</v>
+      </c>
+      <c r="E10" s="87">
+        <v>347110</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="94">
+        <f>+E10-D10</f>
+        <v>-106802</v>
+      </c>
+      <c r="H10" s="89">
+        <f t="shared" si="0"/>
+        <v>-0.30768920515110482</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="90" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="95">
+        <v>0</v>
+      </c>
+      <c r="D11" s="95">
+        <v>0</v>
+      </c>
+      <c r="E11" s="95">
+        <v>218250</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97">
+        <f>+E11-D11</f>
+        <v>218250</v>
+      </c>
+      <c r="H11" s="89">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="94">
         <f>-'BC20'!J84</f>
         <v>378260</v>
       </c>
-      <c r="D6" s="17">
-        <f>+C6/10*12</f>
+      <c r="D12" s="94">
+        <f>+C12/10*12</f>
         <v>453912</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E12" s="94">
         <v>565360</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F12" s="94">
         <v>786493</v>
       </c>
-      <c r="G6" s="17">
-        <f>+E6-F6</f>
-        <v>-221133</v>
-      </c>
-      <c r="H6" s="26">
-        <f>+G6/E6</f>
-        <v>-0.39113662091410784</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45">
-      <c r="B7" s="16" t="s">
+      <c r="G12" s="94">
+        <f>+E12-D12</f>
+        <v>111448</v>
+      </c>
+      <c r="H12" s="89">
+        <f>+G12/E12</f>
+        <v>0.19712749398613272</v>
+      </c>
+      <c r="I12" s="100"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C13" s="94">
         <f>+'BC20'!J90</f>
         <v>264271.33</v>
       </c>
-      <c r="D7" s="17">
-        <f>+C7/10*12</f>
+      <c r="D13" s="94">
+        <f>+C13/10*12</f>
         <v>317125.59600000002</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E13" s="94">
         <v>254206</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F13" s="94">
         <v>596245</v>
       </c>
-      <c r="G7" s="17">
-        <f>+E7-F7</f>
-        <v>-342039</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" ref="H7:H19" si="0">+G7/E7</f>
-        <v>-1.3455189885368559</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="16" t="s">
+      <c r="G13" s="94">
+        <f t="shared" ref="G13:G15" si="1">+E13-D13</f>
+        <v>-62919.59600000002</v>
+      </c>
+      <c r="H13" s="89">
+        <f t="shared" ref="H13:H26" si="2">+G13/E13</f>
+        <v>-0.24751420501483057</v>
+      </c>
+      <c r="I13" s="101"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="102">
+        <f>+C13/C7</f>
+        <v>150.15416477272728</v>
+      </c>
+      <c r="D14" s="102">
+        <f t="shared" ref="D14:E14" si="3">+D13/D7</f>
+        <v>150.15416477272728</v>
+      </c>
+      <c r="E14" s="102">
+        <f t="shared" si="3"/>
+        <v>177.76643356643356</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="102">
+        <f>+D14-E14</f>
+        <v>-27.612268793706278</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="20">
-        <f>+C6-C7</f>
+      <c r="C15" s="20">
+        <f>+C12-C13</f>
         <v>113988.66999999998</v>
       </c>
-      <c r="D8" s="20">
-        <f>+D6-D7</f>
+      <c r="D15" s="20">
+        <f>+D12-D13</f>
         <v>136786.40399999998</v>
       </c>
-      <c r="E8" s="20">
-        <f>+E6-E7</f>
+      <c r="E15" s="20">
+        <f>+E12-E13</f>
         <v>311154</v>
       </c>
-      <c r="F8" s="20">
-        <f>+F6-F7</f>
+      <c r="F15" s="20">
+        <f>+F12-F13</f>
         <v>190248</v>
       </c>
-      <c r="G8" s="20">
-        <f t="shared" ref="G8:G17" si="1">+E8-F8</f>
-        <v>120906</v>
-      </c>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>0.38857286102701555</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="16"/>
-      <c r="C9" s="24">
-        <f>+C8/C6</f>
+      <c r="G15" s="20">
+        <f t="shared" si="1"/>
+        <v>174367.59600000002</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="2"/>
+        <v>0.56039001909022546</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="24">
+        <f>+C15/C12</f>
         <v>0.3013500502300005</v>
       </c>
-      <c r="D9" s="50">
-        <f>+D8/D6</f>
+      <c r="D16" s="50">
+        <f>+D15/D12</f>
         <v>0.3013500502300005</v>
       </c>
-      <c r="E9" s="50">
-        <f>+E8/E6</f>
+      <c r="E16" s="50">
+        <f>+E15/E12</f>
         <v>0.55036436960520729</v>
       </c>
-      <c r="F9" s="50">
-        <f>+F8/F6</f>
+      <c r="F16" s="50">
+        <f>+F15/F12</f>
         <v>0.24189407915900077</v>
       </c>
-      <c r="G9" s="50">
-        <f>-E9+D9</f>
+      <c r="G16" s="50">
+        <f>-E16+D16</f>
         <v>-0.24901431937520679</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <f t="shared" si="1"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <f t="shared" ref="G17:G24" si="4">+E17-F17</f>
         <v>0</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="60">
-      <c r="B11" s="16" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:9" ht="60">
+      <c r="B18" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C18" s="17">
         <f>+'BC20'!J96</f>
         <v>78113.88</v>
       </c>
-      <c r="D11" s="51">
-        <f>+C11/10*12</f>
+      <c r="D18" s="51">
+        <f>+C18/10*12</f>
         <v>93736.656000000017</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E18" s="51">
         <v>148619</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F18" s="51">
         <f>125973-19672</f>
         <v>106301</v>
       </c>
-      <c r="G11" s="51">
-        <f t="shared" si="1"/>
-        <v>42318</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>0.28474152026322341</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="16"/>
-      <c r="C12" s="24">
-        <f>+C11/C6</f>
+      <c r="G18" s="51">
+        <f>+E18-D18</f>
+        <v>54882.343999999983</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="2"/>
+        <v>0.36928215100357276</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="16"/>
+      <c r="C19" s="24">
+        <f>+C18/C12</f>
         <v>0.20650843335272037</v>
       </c>
-      <c r="D12" s="24">
-        <f>+D11/D6</f>
+      <c r="D19" s="24">
+        <f>+D18/D12</f>
         <v>0.2065084333527204</v>
       </c>
-      <c r="E12" s="24">
-        <f>+E11/E6</f>
+      <c r="E19" s="24">
+        <f>+E18/E12</f>
         <v>0.26287498231215511</v>
       </c>
-      <c r="F12" s="24">
-        <f>+F11/F6</f>
+      <c r="F19" s="24">
+        <f>+F18/F12</f>
         <v>0.13515822772739236</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="22" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17">
-        <f t="shared" ref="D13:D14" si="2">+C13/10*12</f>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17">
+        <f t="shared" ref="D20:D21" si="5">+C20/10*12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E20" s="17">
         <f>+'BC19'!E123+'BC19'!E124</f>
         <v>119.5</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F20" s="17">
         <v>2502</v>
       </c>
-      <c r="G13" s="17">
-        <f t="shared" si="1"/>
-        <v>-2382.5</v>
-      </c>
-      <c r="H13" s="26">
-        <f t="shared" si="0"/>
-        <v>-19.93723849372385</v>
-      </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="22" t="s">
+      <c r="G20" s="17">
+        <f t="shared" ref="G20:G22" si="6">+E20-D20</f>
+        <v>119.5</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C21" s="17">
         <f>+'BC20'!J112</f>
         <v>-941.58</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D21" s="17">
+        <f t="shared" si="5"/>
+        <v>-1129.896</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
+        <f t="shared" si="6"/>
+        <v>1129.896</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="20">
+        <f>+C15-C18-C20-C21</f>
+        <v>36816.369999999981</v>
+      </c>
+      <c r="D22" s="20">
+        <f>+D15-D18-D20</f>
+        <v>43049.747999999963</v>
+      </c>
+      <c r="E22" s="20">
+        <f>+E15-E18-E20</f>
+        <v>162415.5</v>
+      </c>
+      <c r="F22" s="20">
+        <f>+F26+F25</f>
+        <v>81445</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="6"/>
+        <v>119365.75200000004</v>
+      </c>
+      <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>-1129.896</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="20">
-        <f>+C8-C11-C13-C14</f>
+        <v>0.73494064298050399</v>
+      </c>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="16"/>
+      <c r="C23" s="24">
+        <f>+C22/C12</f>
+        <v>9.7330857082430028E-2</v>
+      </c>
+      <c r="D23" s="24">
+        <f>+D22/D12</f>
+        <v>9.4841616877280099E-2</v>
+      </c>
+      <c r="E23" s="24">
+        <f>+E22/E12</f>
+        <v>0.28727801754634213</v>
+      </c>
+      <c r="F23" s="24">
+        <f>+F22/F12</f>
+        <v>0.10355464066431615</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" ht="30">
+      <c r="B25" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
+        <v>40604</v>
+      </c>
+      <c r="F25" s="17">
+        <v>19672</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" ref="G25:G26" si="7">+E25-D25</f>
+        <v>40604</v>
+      </c>
+      <c r="H25" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="14">
+        <f>+C22-C25</f>
         <v>36816.369999999981</v>
       </c>
-      <c r="D15" s="20">
-        <f>+D8-D11-D13</f>
+      <c r="D26" s="14">
+        <f>+D22-D25</f>
         <v>43049.747999999963</v>
       </c>
-      <c r="E15" s="20">
-        <f>+E8-E11-E13</f>
-        <v>162415.5</v>
-      </c>
-      <c r="F15" s="20">
-        <f>+F19+F18</f>
-        <v>81445</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="1"/>
-        <v>80970.5</v>
-      </c>
-      <c r="H15" s="26">
-        <f t="shared" si="0"/>
-        <v>0.49853924040501063</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="16"/>
-      <c r="C16" s="24">
-        <f>+C15/C6</f>
+      <c r="E26" s="14">
+        <f>+E22-E25</f>
+        <v>121811.5</v>
+      </c>
+      <c r="F26" s="14">
+        <v>61773</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="7"/>
+        <v>78761.752000000037</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" si="2"/>
+        <v>0.64658716131071403</v>
+      </c>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="25">
+        <f t="shared" ref="C27:D27" si="8">+C26/C12</f>
         <v>9.7330857082430028E-2</v>
       </c>
-      <c r="D16" s="24">
-        <f>+D15/D6</f>
+      <c r="D27" s="25">
+        <f t="shared" si="8"/>
         <v>9.4841616877280099E-2</v>
       </c>
-      <c r="E16" s="24">
-        <f>+E15/E6</f>
-        <v>0.28727801754634213</v>
-      </c>
-      <c r="F16" s="24">
-        <f>+F15/F6</f>
-        <v>0.10355464066431615</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="2:9" hidden="1">
-      <c r="B17" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="2:9" ht="30">
-      <c r="B18" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17">
-        <v>40604</v>
-      </c>
-      <c r="F18" s="17">
-        <v>19672</v>
-      </c>
-      <c r="G18" s="17">
-        <f t="shared" ref="G18:G19" si="3">+E18-F18</f>
-        <v>20932</v>
-      </c>
-      <c r="H18" s="26">
-        <f t="shared" si="0"/>
-        <v>0.51551571273766128</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="14">
-        <f>+C15-C18</f>
-        <v>36816.369999999981</v>
-      </c>
-      <c r="D19" s="14">
-        <f>+D15-D18</f>
-        <v>43049.747999999963</v>
-      </c>
-      <c r="E19" s="14">
-        <f>+E15-E18</f>
-        <v>121811.5</v>
-      </c>
-      <c r="F19" s="14">
-        <v>61773</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="3"/>
-        <v>60038.5</v>
-      </c>
-      <c r="H19" s="26">
-        <f t="shared" si="0"/>
-        <v>0.49288039306633608</v>
-      </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="C20" s="25">
-        <f t="shared" ref="C20:D20" si="4">+C19/C6</f>
-        <v>9.7330857082430028E-2</v>
-      </c>
-      <c r="D20" s="25">
-        <f t="shared" si="4"/>
-        <v>9.4841616877280099E-2</v>
-      </c>
-      <c r="E20" s="25">
-        <f>+E19/E6</f>
+      <c r="E27" s="25">
+        <f>+E26/E12</f>
         <v>0.2154582920616952</v>
       </c>
-      <c r="F20" s="25">
-        <f>+F19/F6</f>
+      <c r="F27" s="25">
+        <f>+F26/F12</f>
         <v>7.8542339219802332E-2</v>
       </c>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4176,12 +4374,12 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="B3" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1">
@@ -4535,10 +4733,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -5529,7 +5727,7 @@
     <row r="77" spans="1:10" s="3" customFormat="1"/>
     <row r="78" spans="1:10" s="3" customFormat="1">
       <c r="B78" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5551,12 +5749,12 @@
     </row>
     <row r="81" spans="1:10" s="3" customFormat="1">
       <c r="B81" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="3" customFormat="1">
       <c r="B82" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5928,10 +6126,10 @@
         <v>118</v>
       </c>
       <c r="B101" t="s">
+        <v>437</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -5996,7 +6194,7 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>411</v>
@@ -6030,10 +6228,10 @@
         <v>130</v>
       </c>
       <c r="B107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -6130,10 +6328,10 @@
         <v>137</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -6152,10 +6350,10 @@
         <v>138</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D113" s="3">
         <v>2</v>
@@ -6174,10 +6372,10 @@
         <v>139</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
@@ -6196,7 +6394,7 @@
         <v>140</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>425</v>
@@ -6218,7 +6416,7 @@
         <v>141</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>426</v>
@@ -6240,7 +6438,7 @@
         <v>142</v>
       </c>
       <c r="B117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>428</v>
@@ -6257,10 +6455,10 @@
         <v>144</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="D118" s="3">
         <v>2</v>
@@ -6279,10 +6477,10 @@
         <v>145</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="D119" s="3">
         <v>3</v>
@@ -6301,10 +6499,10 @@
         <v>146</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="D120" s="3">
         <v>4</v>
@@ -6323,10 +6521,10 @@
         <v>147</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="D121" s="3">
         <v>5</v>
@@ -6345,10 +6543,10 @@
         <v>148</v>
       </c>
       <c r="B122" t="s">
+        <v>459</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -6359,7 +6557,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="B124" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
